--- a/data/raw-data/data0.xlsx
+++ b/data/raw-data/data0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86182\Desktop\TB project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86182\Desktop\EPID 8060E\MADA\Yang-MADA-project\data\raw-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000A8E50-7CD1-436D-B383-9649C5D3AC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496730F7-4B17-4F3D-AD4F-ACC3DAABD24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,22 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TNF_Alpha_umol_mL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INF_Gamma_umol_mL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRP_mg_dL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IL_10_uL_mL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CD4_plus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,7 +112,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Leptin_ug_L</t>
+    <t>IL_10_pg_mL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leptin_ng_ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INF_Gamma_pg_ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRP_mg_dl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TNF_Alpha_pg_ml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +158,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,12 +168,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,12 +193,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -488,7 +481,7 @@
   <dimension ref="A1:W61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -507,9 +500,9 @@
     <col min="13" max="13" width="14.88671875" style="1" customWidth="1"/>
     <col min="14" max="14" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.77734375" style="1" customWidth="1"/>
     <col min="19" max="19" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.44140625" style="1" customWidth="1"/>
@@ -562,31 +555,31 @@
         <v>2</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -642,7 +635,7 @@
         <v>16</v>
       </c>
       <c r="R2" s="1">
-        <v>1.178854E-3</v>
+        <v>1178.854</v>
       </c>
       <c r="S2" s="1">
         <v>8.6</v>
@@ -713,7 +706,7 @@
         <v>23.4</v>
       </c>
       <c r="R3" s="1">
-        <v>2.5360780000000002E-3</v>
+        <v>2536.0780000000004</v>
       </c>
       <c r="S3" s="1">
         <v>7.4</v>
@@ -784,7 +777,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>2.8578929999999998E-3</v>
+        <v>2857.893</v>
       </c>
       <c r="S4" s="1">
         <v>5.5</v>
@@ -855,7 +848,7 @@
         <v>26.9</v>
       </c>
       <c r="R5" s="1">
-        <v>2.9278529999999998E-3</v>
+        <v>2927.8529999999996</v>
       </c>
       <c r="S5" s="1">
         <v>5.0999999999999996</v>
@@ -926,7 +919,7 @@
         <v>13.5</v>
       </c>
       <c r="R6" s="1">
-        <v>2.9558369999999998E-3</v>
+        <v>2955.837</v>
       </c>
       <c r="S6" s="1">
         <v>5</v>
@@ -997,7 +990,7 @@
         <v>10.9</v>
       </c>
       <c r="R7" s="1">
-        <v>2.8858769999999998E-3</v>
+        <v>2885.877</v>
       </c>
       <c r="S7" s="1">
         <v>5.0999999999999996</v>
@@ -1068,7 +1061,7 @@
         <v>14.5</v>
       </c>
       <c r="R8" s="1">
-        <v>2.8299089999999998E-3</v>
+        <v>2829.9089999999997</v>
       </c>
       <c r="S8" s="1">
         <v>5.8</v>
@@ -1139,7 +1132,7 @@
         <v>12.9</v>
       </c>
       <c r="R9" s="1">
-        <v>2.6060369999999999E-3</v>
+        <v>2606.0369999999998</v>
       </c>
       <c r="S9" s="1">
         <v>5.5</v>
@@ -1210,7 +1203,7 @@
         <v>11.8</v>
       </c>
       <c r="R10" s="1">
-        <v>1.7385339999999999E-3</v>
+        <v>1738.5339999999999</v>
       </c>
       <c r="S10" s="1">
         <v>8.1</v>
@@ -1281,7 +1274,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>2.6060369999999999E-3</v>
+        <v>2606.0369999999998</v>
       </c>
       <c r="S11" s="1">
         <v>7.3</v>
@@ -1352,7 +1345,7 @@
         <v>13.1</v>
       </c>
       <c r="R12" s="1">
-        <v>2.8858769999999998E-3</v>
+        <v>2885.877</v>
       </c>
       <c r="S12" s="1">
         <v>5.4</v>
@@ -1423,7 +1416,7 @@
         <v>13.7</v>
       </c>
       <c r="R13" s="1">
-        <v>2.8718849999999998E-3</v>
+        <v>2871.8849999999998</v>
       </c>
       <c r="S13" s="1">
         <v>5</v>
@@ -1494,7 +1487,7 @@
         <v>16.8</v>
       </c>
       <c r="R14" s="1">
-        <v>2.9138609999999998E-3</v>
+        <v>2913.8609999999999</v>
       </c>
       <c r="S14" s="1">
         <v>5.9</v>
@@ -1565,7 +1558,7 @@
         <v>12.6</v>
       </c>
       <c r="R15" s="1">
-        <v>2.8159169999999998E-3</v>
+        <v>2815.9169999999999</v>
       </c>
       <c r="S15" s="1">
         <v>5.9</v>
@@ -1636,7 +1629,7 @@
         <v>9.4</v>
       </c>
       <c r="R16" s="1">
-        <v>2.9278529999999998E-3</v>
+        <v>2927.8529999999996</v>
       </c>
       <c r="S16" s="1">
         <v>5</v>
@@ -1707,7 +1700,7 @@
         <v>14.7</v>
       </c>
       <c r="R17" s="1">
-        <v>2.8299089999999998E-3</v>
+        <v>2829.9089999999997</v>
       </c>
       <c r="S17" s="1">
         <v>4.4000000000000004</v>
@@ -1778,7 +1771,7 @@
         <v>11.5</v>
       </c>
       <c r="R18" s="1">
-        <v>1.5846219999999999E-3</v>
+        <v>1584.6219999999998</v>
       </c>
       <c r="S18" s="1">
         <v>8.3000000000000007</v>
@@ -1843,13 +1836,13 @@
         <v>1.159778</v>
       </c>
       <c r="P19" s="1">
-        <v>6.8</v>
+        <v>6.7999999999999989</v>
       </c>
       <c r="Q19" s="1">
         <v>13.7</v>
       </c>
       <c r="R19" s="1">
-        <v>2.0743419999999999E-3</v>
+        <v>2074.3419999999996</v>
       </c>
       <c r="S19" s="1">
         <v>7.8</v>
@@ -1914,13 +1907,13 @@
         <v>1.201584</v>
       </c>
       <c r="P20" s="1">
-        <v>13.1</v>
+        <v>13.100000000000001</v>
       </c>
       <c r="Q20" s="1">
         <v>20.2</v>
       </c>
       <c r="R20" s="1">
-        <v>2.8019249999999998E-3</v>
+        <v>2801.9249999999997</v>
       </c>
       <c r="S20" s="1">
         <v>5.9</v>
@@ -1991,7 +1984,7 @@
         <v>78.3</v>
       </c>
       <c r="R21" s="1">
-        <v>2.9138609999999998E-3</v>
+        <v>2913.8609999999999</v>
       </c>
       <c r="S21" s="1">
         <v>6.1</v>
@@ -2056,13 +2049,13 @@
         <v>1.201584</v>
       </c>
       <c r="P22" s="1">
-        <v>5.7</v>
+        <v>5.7000000000000011</v>
       </c>
       <c r="Q22" s="1">
         <v>10.3</v>
       </c>
       <c r="R22" s="1">
-        <v>2.8159169999999998E-3</v>
+        <v>2815.9169999999999</v>
       </c>
       <c r="S22" s="1">
         <v>5</v>
@@ -2127,13 +2120,13 @@
         <v>1.201584</v>
       </c>
       <c r="P23" s="1">
-        <v>11.1</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="Q23" s="1">
         <v>47.9</v>
       </c>
       <c r="R23" s="1">
-        <v>2.8578929999999998E-3</v>
+        <v>2857.893</v>
       </c>
       <c r="S23" s="1">
         <v>5.8</v>
@@ -2204,7 +2197,7 @@
         <v>11.8</v>
       </c>
       <c r="R24" s="1">
-        <v>2.8578929999999998E-3</v>
+        <v>2857.893</v>
       </c>
       <c r="S24" s="1">
         <v>7.1</v>
@@ -2275,7 +2268,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>2.9418449999999998E-3</v>
+        <v>2941.8449999999998</v>
       </c>
       <c r="S25" s="1">
         <v>6.4</v>
@@ -2346,7 +2339,7 @@
         <v>15.1</v>
       </c>
       <c r="R26" s="1">
-        <v>2.0183739999999999E-3</v>
+        <v>2018.3739999999998</v>
       </c>
       <c r="S26" s="1">
         <v>18.899999999999999</v>
@@ -2417,7 +2410,7 @@
         <v>13.7</v>
       </c>
       <c r="R27" s="1">
-        <v>2.5780529999999999E-3</v>
+        <v>2578.0529999999999</v>
       </c>
       <c r="S27" s="1">
         <v>7.6</v>
@@ -2488,7 +2481,7 @@
         <v>20.3</v>
       </c>
       <c r="R28" s="1">
-        <v>2.9558369999999998E-3</v>
+        <v>2955.837</v>
       </c>
       <c r="S28" s="1">
         <v>7.1</v>
@@ -2559,7 +2552,7 @@
         <v>29</v>
       </c>
       <c r="R29" s="1">
-        <v>2.8159169999999998E-3</v>
+        <v>2815.9169999999999</v>
       </c>
       <c r="S29" s="1">
         <v>9.6999999999999993</v>
@@ -2630,7 +2623,7 @@
         <v>36.299999999999997</v>
       </c>
       <c r="R30" s="1">
-        <v>2.7879340000000002E-3</v>
+        <v>2787.9340000000002</v>
       </c>
       <c r="S30" s="1">
         <v>10.8</v>
@@ -2701,7 +2694,7 @@
         <v>21.4</v>
       </c>
       <c r="R31" s="1">
-        <v>2.8299089999999998E-3</v>
+        <v>2829.9089999999997</v>
       </c>
       <c r="S31" s="1">
         <v>5.9</v>
@@ -2766,13 +2759,13 @@
         <v>1.1806810000000001</v>
       </c>
       <c r="P32" s="1">
-        <v>13.6</v>
+        <v>13.599999999999998</v>
       </c>
       <c r="Q32" s="1">
         <v>59.5</v>
       </c>
       <c r="R32" s="1">
-        <v>3.0537810000000002E-3</v>
+        <v>3053.7810000000004</v>
       </c>
       <c r="S32" s="1">
         <v>5.0999999999999996</v>
@@ -2843,7 +2836,7 @@
         <v>49.5</v>
       </c>
       <c r="R33" s="1">
-        <v>3.0118050000000002E-3</v>
+        <v>3011.8050000000003</v>
       </c>
       <c r="S33" s="1">
         <v>6</v>
@@ -2914,7 +2907,7 @@
         <v>18.5</v>
       </c>
       <c r="R34" s="1">
-        <v>1.8084939999999999E-3</v>
+        <v>1808.4939999999999</v>
       </c>
       <c r="S34" s="1">
         <v>9.6999999999999993</v>
@@ -2985,7 +2978,7 @@
         <v>15.7</v>
       </c>
       <c r="R35" s="1">
-        <v>2.7459569999999998E-3</v>
+        <v>2745.9569999999999</v>
       </c>
       <c r="S35" s="1">
         <v>8.8000000000000007</v>
@@ -3056,7 +3049,7 @@
         <v>45.7</v>
       </c>
       <c r="R36" s="1">
-        <v>2.8159169999999998E-3</v>
+        <v>2815.9169999999999</v>
       </c>
       <c r="S36" s="1">
         <v>6.1</v>
@@ -3127,7 +3120,7 @@
         <v>23.7</v>
       </c>
       <c r="R37" s="1">
-        <v>3.0118050000000002E-3</v>
+        <v>3011.8050000000003</v>
       </c>
       <c r="S37" s="1">
         <v>8.3000000000000007</v>
@@ -3188,7 +3181,7 @@
       <c r="N38" s="1">
         <v>13.770707396000001</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="3">
         <v>44.47101</v>
       </c>
       <c r="P38" s="1">
@@ -3198,7 +3191,7 @@
         <v>113.3</v>
       </c>
       <c r="R38" s="1">
-        <v>2.9698289999999998E-3</v>
+        <v>2969.8289999999997</v>
       </c>
       <c r="S38" s="1">
         <v>6.1</v>
@@ -3269,7 +3262,7 @@
         <v>19.3</v>
       </c>
       <c r="R39" s="1">
-        <v>2.8578929999999998E-3</v>
+        <v>2857.893</v>
       </c>
       <c r="S39" s="1">
         <v>5.9</v>
@@ -3334,13 +3327,13 @@
         <v>3.5218280000000002</v>
       </c>
       <c r="P40" s="1">
-        <v>11.1</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="Q40" s="1">
         <v>40.9</v>
       </c>
       <c r="R40" s="1">
-        <v>2.8718849999999998E-3</v>
+        <v>2871.8849999999998</v>
       </c>
       <c r="S40" s="1">
         <v>5.3</v>
@@ -3405,13 +3398,13 @@
         <v>5.0059490000000002</v>
       </c>
       <c r="P41" s="1">
-        <v>5.3</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="Q41" s="1">
         <v>15.6</v>
       </c>
       <c r="R41" s="1">
-        <v>2.9698289999999998E-3</v>
+        <v>2969.8289999999997</v>
       </c>
       <c r="S41" s="1">
         <v>9.6999999999999993</v>
@@ -3482,7 +3475,7 @@
         <v>20.6</v>
       </c>
       <c r="R42" s="1">
-        <v>1.8924460000000001E-3</v>
+        <v>1892.4460000000001</v>
       </c>
       <c r="S42" s="1">
         <v>10.8</v>
@@ -3553,7 +3546,7 @@
         <v>27.5</v>
       </c>
       <c r="R43" s="1">
-        <v>2.3681739999999998E-3</v>
+        <v>2368.174</v>
       </c>
       <c r="S43" s="1">
         <v>7</v>
@@ -3624,7 +3617,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="R44" s="1">
-        <v>2.5220860000000002E-3</v>
+        <v>2522.0860000000002</v>
       </c>
       <c r="S44" s="1">
         <v>6.8</v>
@@ -3695,7 +3688,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="R45" s="1">
-        <v>2.9698289999999998E-3</v>
+        <v>2969.8289999999997</v>
       </c>
       <c r="S45" s="1">
         <v>7</v>
@@ -3766,7 +3759,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="R46" s="1">
-        <v>2.9278529999999998E-3</v>
+        <v>2927.8529999999996</v>
       </c>
       <c r="S46" s="1">
         <v>6.3</v>
@@ -3837,7 +3830,7 @@
         <v>45.6</v>
       </c>
       <c r="R47" s="1">
-        <v>2.8998689999999998E-3</v>
+        <v>2899.8689999999997</v>
       </c>
       <c r="S47" s="1">
         <v>6.3</v>
@@ -3908,7 +3901,7 @@
         <v>22.9</v>
       </c>
       <c r="R48" s="1">
-        <v>3.1657170000000002E-3</v>
+        <v>3165.7170000000001</v>
       </c>
       <c r="S48" s="1">
         <v>5.3</v>
@@ -3973,13 +3966,13 @@
         <v>1.598743</v>
       </c>
       <c r="P49" s="1">
-        <v>11.4</v>
+        <v>11.400000000000002</v>
       </c>
       <c r="Q49" s="1">
         <v>22.6</v>
       </c>
       <c r="R49" s="1">
-        <v>3.0537810000000002E-3</v>
+        <v>3053.7810000000004</v>
       </c>
       <c r="S49" s="1">
         <v>5.4</v>
@@ -4044,13 +4037,13 @@
         <v>3.6681499999999998</v>
       </c>
       <c r="P50" s="1">
-        <v>13.1</v>
+        <v>13.100000000000001</v>
       </c>
       <c r="Q50" s="1">
         <v>23.2</v>
       </c>
       <c r="R50" s="1">
-        <v>1.9344220000000001E-3</v>
+        <v>1934.422</v>
       </c>
       <c r="S50" s="1">
         <v>12.9</v>
@@ -4121,7 +4114,7 @@
         <v>22.8</v>
       </c>
       <c r="R51" s="1">
-        <v>2.2702299999999998E-3</v>
+        <v>2270.23</v>
       </c>
       <c r="S51" s="1">
         <v>8.6</v>
@@ -4192,7 +4185,7 @@
         <v>22.4</v>
       </c>
       <c r="R52" s="1">
-        <v>2.7879340000000002E-3</v>
+        <v>2787.9340000000002</v>
       </c>
       <c r="S52" s="1">
         <v>6.8</v>
@@ -4263,7 +4256,7 @@
         <v>23.2</v>
       </c>
       <c r="R53" s="1">
-        <v>2.8299089999999998E-3</v>
+        <v>2829.9089999999997</v>
       </c>
       <c r="S53" s="1">
         <v>6.3</v>
@@ -4334,7 +4327,7 @@
         <v>30.6</v>
       </c>
       <c r="R54" s="1">
-        <v>2.8159169999999998E-3</v>
+        <v>2815.9169999999999</v>
       </c>
       <c r="S54" s="1">
         <v>6.4</v>
@@ -4405,7 +4398,7 @@
         <v>56.4</v>
       </c>
       <c r="R55" s="1">
-        <v>2.7459569999999998E-3</v>
+        <v>2745.9569999999999</v>
       </c>
       <c r="S55" s="1">
         <v>6.1</v>
@@ -4470,13 +4463,13 @@
         <v>1.1806810000000001</v>
       </c>
       <c r="P56" s="1">
-        <v>13.6</v>
+        <v>13.599999999999998</v>
       </c>
       <c r="Q56" s="1">
         <v>41.6</v>
       </c>
       <c r="R56" s="1">
-        <v>2.8718849999999998E-3</v>
+        <v>2871.8849999999998</v>
       </c>
       <c r="S56" s="1">
         <v>6.1</v>
@@ -4547,7 +4540,7 @@
         <v>15</v>
       </c>
       <c r="R57" s="1">
-        <v>2.8998689999999998E-3</v>
+        <v>2899.8689999999997</v>
       </c>
       <c r="S57" s="1">
         <v>6.6</v>
@@ -4618,7 +4611,7 @@
         <v>44</v>
       </c>
       <c r="R58" s="1">
-        <v>2.3681739999999998E-3</v>
+        <v>2368.174</v>
       </c>
       <c r="S58" s="1">
         <v>16.2</v>
@@ -4689,7 +4682,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="R59" s="1">
-        <v>2.4801100000000002E-3</v>
+        <v>2480.11</v>
       </c>
       <c r="S59" s="1">
         <v>9.9</v>
@@ -4754,13 +4747,13 @@
         <v>1.1806810000000001</v>
       </c>
       <c r="P60" s="1">
-        <v>13.9</v>
+        <v>13.900000000000002</v>
       </c>
       <c r="Q60" s="1">
         <v>31.8</v>
       </c>
       <c r="R60" s="1">
-        <v>2.2002699999999998E-3</v>
+        <v>2200.27</v>
       </c>
       <c r="S60" s="1">
         <v>10.1</v>
@@ -4825,13 +4818,13 @@
         <v>1.201584</v>
       </c>
       <c r="P61" s="1">
-        <v>13.9</v>
+        <v>13.900000000000002</v>
       </c>
       <c r="Q61" s="1">
         <v>11.8</v>
       </c>
       <c r="R61" s="1">
-        <v>2.6060369999999999E-3</v>
+        <v>2606.0369999999998</v>
       </c>
       <c r="S61" s="1">
         <v>9</v>
